--- a/Vasklister/Excel/vaskeliste_Mai2017.xlsx
+++ b/Vasklister/Excel/vaskeliste_Mai2017.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="28380" windowHeight="15210"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="27825" windowHeight="15210"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>debitor_ident</t>
   </si>
   <si>
     <t>Sak_Nr</t>
+  </si>
+  <si>
+    <t>Kommune_Nr</t>
   </si>
 </sst>
 </file>
@@ -378,10 +381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -389,29 +392,42 @@
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
+        <v>13098245418</v>
+      </c>
+      <c r="B2" s="1">
+        <v>313054</v>
+      </c>
+      <c r="C2">
+        <v>11111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>13088334935</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B3" s="1">
         <v>267794</v>
       </c>
+      <c r="C3">
+        <v>22222</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>13098245418</v>
-      </c>
-      <c r="B3" s="1">
-        <v>313054</v>
-      </c>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Vasklister/Excel/vaskeliste_Mai2017.xlsx
+++ b/Vasklister/Excel/vaskeliste_Mai2017.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="27825" windowHeight="15210"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="24315" windowHeight="13245"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -384,7 +384,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -405,25 +405,18 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>13098245418</v>
+        <v>2092834193</v>
       </c>
       <c r="B2" s="1">
-        <v>313054</v>
+        <v>343606</v>
       </c>
       <c r="C2">
         <v>11111</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>13088334935</v>
-      </c>
-      <c r="B3" s="1">
-        <v>267794</v>
-      </c>
-      <c r="C3">
-        <v>22222</v>
-      </c>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>

--- a/Vasklister/Excel/vaskeliste_Mai2017.xlsx
+++ b/Vasklister/Excel/vaskeliste_Mai2017.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="27825" windowHeight="15210"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="25200" windowHeight="14520"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -384,7 +384,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -408,22 +408,15 @@
         <v>13098245418</v>
       </c>
       <c r="B2" s="1">
-        <v>313054</v>
+        <v>349262</v>
       </c>
       <c r="C2">
         <v>11111</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>13088334935</v>
-      </c>
-      <c r="B3" s="1">
-        <v>267794</v>
-      </c>
-      <c r="C3">
-        <v>22222</v>
-      </c>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>

--- a/Vasklister/Excel/vaskeliste_Mai2017.xlsx
+++ b/Vasklister/Excel/vaskeliste_Mai2017.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="25200" windowHeight="14520"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="19200" windowHeight="14415"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="688">
   <si>
     <t>debitor_ident</t>
   </si>
@@ -22,205 +22,2062 @@
     <t>Sak_Nr</t>
   </si>
   <si>
-    <t>Kommune_Nr</t>
-  </si>
-  <si>
     <t>0301</t>
   </si>
   <si>
     <t>1601</t>
   </si>
   <si>
+    <t>1103</t>
+  </si>
+  <si>
+    <t>1662</t>
+  </si>
+  <si>
+    <t>1502</t>
+  </si>
+  <si>
+    <t>Kommune_nr</t>
+  </si>
+  <si>
+    <t>0219</t>
+  </si>
+  <si>
+    <t>16115831066</t>
+  </si>
+  <si>
+    <t>016428</t>
+  </si>
+  <si>
+    <t>04097528441</t>
+  </si>
+  <si>
+    <t>016746</t>
+  </si>
+  <si>
+    <t>08086831679</t>
+  </si>
+  <si>
+    <t>202304</t>
+  </si>
+  <si>
+    <t>0702</t>
+  </si>
+  <si>
+    <t>242645</t>
+  </si>
+  <si>
+    <t>28077144651</t>
+  </si>
+  <si>
+    <t>206758</t>
+  </si>
+  <si>
+    <t>263544</t>
+  </si>
+  <si>
+    <t>272229</t>
+  </si>
+  <si>
+    <t>06117933820</t>
+  </si>
+  <si>
+    <t>339754</t>
+  </si>
+  <si>
+    <t>19077734662</t>
+  </si>
+  <si>
+    <t>205328</t>
+  </si>
+  <si>
+    <t>0625</t>
+  </si>
+  <si>
+    <t>05097431959</t>
+  </si>
+  <si>
+    <t>192014</t>
+  </si>
+  <si>
     <t>1201</t>
   </si>
   <si>
+    <t>11056222350</t>
+  </si>
+  <si>
+    <t>112130</t>
+  </si>
+  <si>
+    <t>112767</t>
+  </si>
+  <si>
+    <t>12116132158</t>
+  </si>
+  <si>
+    <t>030562</t>
+  </si>
+  <si>
+    <t>190554</t>
+  </si>
+  <si>
+    <t>05046618108</t>
+  </si>
+  <si>
+    <t>031317</t>
+  </si>
+  <si>
+    <t>0233</t>
+  </si>
+  <si>
+    <t>321975</t>
+  </si>
+  <si>
+    <t>21056445436</t>
+  </si>
+  <si>
+    <t>311069</t>
+  </si>
+  <si>
+    <t>1742</t>
+  </si>
+  <si>
+    <t>335947</t>
+  </si>
+  <si>
+    <t>17048030432</t>
+  </si>
+  <si>
+    <t>112946</t>
+  </si>
+  <si>
+    <t>08017342429</t>
+  </si>
+  <si>
+    <t>105562</t>
+  </si>
+  <si>
+    <t>1443</t>
+  </si>
+  <si>
+    <t>07016825497</t>
+  </si>
+  <si>
+    <t>171269</t>
+  </si>
+  <si>
+    <t>0217</t>
+  </si>
+  <si>
+    <t>03108345739</t>
+  </si>
+  <si>
+    <t>041989</t>
+  </si>
+  <si>
+    <t>2025</t>
+  </si>
+  <si>
+    <t>339341</t>
+  </si>
+  <si>
+    <t>20096632984</t>
+  </si>
+  <si>
+    <t>044819</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>344355</t>
+  </si>
+  <si>
+    <t>31077841981</t>
+  </si>
+  <si>
+    <t>296200</t>
+  </si>
+  <si>
+    <t>1219</t>
+  </si>
+  <si>
+    <t>344414</t>
+  </si>
+  <si>
+    <t>05058129269</t>
+  </si>
+  <si>
+    <t>266394</t>
+  </si>
+  <si>
+    <t>0234</t>
+  </si>
+  <si>
+    <t>268112</t>
+  </si>
+  <si>
+    <t>03036229194</t>
+  </si>
+  <si>
+    <t>063514</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>122306</t>
+  </si>
+  <si>
+    <t>208503</t>
+  </si>
+  <si>
+    <t>234114</t>
+  </si>
+  <si>
+    <t>241435</t>
+  </si>
+  <si>
+    <t>294811</t>
+  </si>
+  <si>
+    <t>344284</t>
+  </si>
+  <si>
+    <t>03088447319</t>
+  </si>
+  <si>
+    <t>345030</t>
+  </si>
+  <si>
+    <t>1865</t>
+  </si>
+  <si>
+    <t>10107131162</t>
+  </si>
+  <si>
+    <t>150978</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>192324</t>
+  </si>
+  <si>
+    <t>344313</t>
+  </si>
+  <si>
+    <t>12016229308</t>
+  </si>
+  <si>
+    <t>151353</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>294858</t>
+  </si>
+  <si>
+    <t>344317</t>
+  </si>
+  <si>
+    <t>30017433977</t>
+  </si>
+  <si>
+    <t>045174</t>
+  </si>
+  <si>
+    <t>1621</t>
+  </si>
+  <si>
+    <t>063642</t>
+  </si>
+  <si>
+    <t>078949</t>
+  </si>
+  <si>
+    <t>098955</t>
+  </si>
+  <si>
+    <t>129539</t>
+  </si>
+  <si>
+    <t>192125</t>
+  </si>
+  <si>
+    <t>234560</t>
+  </si>
+  <si>
+    <t>295269</t>
+  </si>
+  <si>
+    <t>303152</t>
+  </si>
+  <si>
+    <t>344406</t>
+  </si>
+  <si>
+    <t>30056732310</t>
+  </si>
+  <si>
+    <t>171022</t>
+  </si>
+  <si>
+    <t>1931</t>
+  </si>
+  <si>
+    <t>225514</t>
+  </si>
+  <si>
+    <t>11057831563</t>
+  </si>
+  <si>
+    <t>257388</t>
+  </si>
+  <si>
+    <t>1837</t>
+  </si>
+  <si>
+    <t>294854</t>
+  </si>
+  <si>
+    <t>344315</t>
+  </si>
+  <si>
+    <t>06038248713</t>
+  </si>
+  <si>
+    <t>345056</t>
+  </si>
+  <si>
+    <t>1938</t>
+  </si>
+  <si>
+    <t>09046932967</t>
+  </si>
+  <si>
+    <t>192315</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>257383</t>
+  </si>
+  <si>
+    <t>294845</t>
+  </si>
+  <si>
+    <t>344309</t>
+  </si>
+  <si>
+    <t>23078838337</t>
+  </si>
+  <si>
+    <t>116145</t>
+  </si>
+  <si>
+    <t>122013</t>
+  </si>
+  <si>
+    <t>151441</t>
+  </si>
+  <si>
+    <t>234509</t>
+  </si>
+  <si>
+    <t>295216</t>
+  </si>
+  <si>
+    <t>344369</t>
+  </si>
+  <si>
+    <t>30078847308</t>
+  </si>
+  <si>
+    <t>296198</t>
+  </si>
+  <si>
+    <t>344409</t>
+  </si>
+  <si>
+    <t>08098737031</t>
+  </si>
+  <si>
+    <t>133231</t>
+  </si>
+  <si>
+    <t>24046542599</t>
+  </si>
+  <si>
+    <t>344375</t>
+  </si>
+  <si>
+    <t>1860</t>
+  </si>
+  <si>
+    <t>345153</t>
+  </si>
+  <si>
+    <t>10087046597</t>
+  </si>
+  <si>
+    <t>260096</t>
+  </si>
+  <si>
+    <t>1235</t>
+  </si>
+  <si>
+    <t>313045</t>
+  </si>
+  <si>
+    <t>21117642418</t>
+  </si>
+  <si>
+    <t>143190</t>
+  </si>
+  <si>
+    <t>0806</t>
+  </si>
+  <si>
+    <t>15127145889</t>
+  </si>
+  <si>
+    <t>267022</t>
+  </si>
+  <si>
+    <t>13046647143</t>
+  </si>
+  <si>
+    <t>050805</t>
+  </si>
+  <si>
+    <t>0704</t>
+  </si>
+  <si>
+    <t>119817</t>
+  </si>
+  <si>
+    <t>09038649679</t>
+  </si>
+  <si>
+    <t>339150</t>
+  </si>
+  <si>
+    <t>1719</t>
+  </si>
+  <si>
+    <t>04096736245</t>
+  </si>
+  <si>
+    <t>067854</t>
+  </si>
+  <si>
+    <t>1211</t>
+  </si>
+  <si>
+    <t>28047644323</t>
+  </si>
+  <si>
+    <t>051172</t>
+  </si>
+  <si>
+    <t>0106</t>
+  </si>
+  <si>
+    <t>066466</t>
+  </si>
+  <si>
+    <t>07078128776</t>
+  </si>
+  <si>
+    <t>312412</t>
+  </si>
+  <si>
+    <t>0104</t>
+  </si>
+  <si>
+    <t>18075540929</t>
+  </si>
+  <si>
+    <t>222090</t>
+  </si>
+  <si>
+    <t>338106</t>
+  </si>
+  <si>
+    <t>05098331028</t>
+  </si>
+  <si>
+    <t>184293</t>
+  </si>
+  <si>
+    <t>15048128960</t>
+  </si>
+  <si>
+    <t>088483</t>
+  </si>
+  <si>
+    <t>1106</t>
+  </si>
+  <si>
+    <t>156079</t>
+  </si>
+  <si>
+    <t>24087040905</t>
+  </si>
+  <si>
+    <t>334510</t>
+  </si>
+  <si>
+    <t>0710</t>
+  </si>
+  <si>
+    <t>29048047937</t>
+  </si>
+  <si>
+    <t>116519</t>
+  </si>
+  <si>
+    <t>13028530905</t>
+  </si>
+  <si>
+    <t>338533</t>
+  </si>
+  <si>
+    <t>0709</t>
+  </si>
+  <si>
+    <t>29048134414</t>
+  </si>
+  <si>
+    <t>189308</t>
+  </si>
+  <si>
+    <t>1001</t>
+  </si>
+  <si>
+    <t>216481</t>
+  </si>
+  <si>
+    <t>01017432342</t>
+  </si>
+  <si>
+    <t>110430</t>
+  </si>
+  <si>
+    <t>05026842125</t>
+  </si>
+  <si>
+    <t>186104</t>
+  </si>
+  <si>
+    <t>18047825586</t>
+  </si>
+  <si>
+    <t>056588</t>
+  </si>
+  <si>
+    <t>0211</t>
+  </si>
+  <si>
+    <t>24037034238</t>
+  </si>
+  <si>
+    <t>107485</t>
+  </si>
+  <si>
+    <t>1121</t>
+  </si>
+  <si>
+    <t>22046636914</t>
+  </si>
+  <si>
+    <t>163242</t>
+  </si>
+  <si>
+    <t>1247</t>
+  </si>
+  <si>
+    <t>18116430548</t>
+  </si>
+  <si>
+    <t>057502</t>
+  </si>
+  <si>
+    <t>06117033943</t>
+  </si>
+  <si>
+    <t>302351</t>
+  </si>
+  <si>
+    <t>1554</t>
+  </si>
+  <si>
+    <t>18105842143</t>
+  </si>
+  <si>
+    <t>147900</t>
+  </si>
+  <si>
+    <t>0412</t>
+  </si>
+  <si>
+    <t>195034</t>
+  </si>
+  <si>
+    <t>17037326194</t>
+  </si>
+  <si>
+    <t>214224</t>
+  </si>
+  <si>
+    <t>1504</t>
+  </si>
+  <si>
+    <t>06116824955</t>
+  </si>
+  <si>
+    <t>058224</t>
+  </si>
+  <si>
+    <t>202594</t>
+  </si>
+  <si>
+    <t>01036938079</t>
+  </si>
+  <si>
+    <t>058899</t>
+  </si>
+  <si>
+    <t>0441</t>
+  </si>
+  <si>
+    <t>088514</t>
+  </si>
+  <si>
+    <t>19087842544</t>
+  </si>
+  <si>
+    <t>087388</t>
+  </si>
+  <si>
+    <t>1866</t>
+  </si>
+  <si>
+    <t>113719</t>
+  </si>
+  <si>
+    <t>156616</t>
+  </si>
+  <si>
+    <t>244777</t>
+  </si>
+  <si>
+    <t>343470</t>
+  </si>
+  <si>
+    <t>26127948398</t>
+  </si>
+  <si>
+    <t>073732</t>
+  </si>
+  <si>
+    <t>0542</t>
+  </si>
+  <si>
+    <t>296775</t>
+  </si>
+  <si>
+    <t>344389</t>
+  </si>
+  <si>
+    <t>06127430517</t>
+  </si>
+  <si>
+    <t>059994</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>12105645153</t>
+  </si>
+  <si>
+    <t>061132</t>
+  </si>
+  <si>
+    <t>02017844914</t>
+  </si>
+  <si>
+    <t>345012</t>
+  </si>
+  <si>
+    <t>12027227900</t>
+  </si>
+  <si>
+    <t>061805</t>
+  </si>
+  <si>
+    <t>1256</t>
+  </si>
+  <si>
+    <t>03078438745</t>
+  </si>
+  <si>
+    <t>345029</t>
+  </si>
+  <si>
+    <t>05127044912</t>
+  </si>
+  <si>
+    <t>315984</t>
+  </si>
+  <si>
+    <t>2028</t>
+  </si>
+  <si>
+    <t>344293</t>
+  </si>
+  <si>
+    <t>06065839545</t>
+  </si>
+  <si>
+    <t>323591</t>
+  </si>
+  <si>
+    <t>26107843743</t>
+  </si>
+  <si>
+    <t>296173</t>
+  </si>
+  <si>
+    <t>344387</t>
+  </si>
+  <si>
+    <t>26127440521</t>
+  </si>
+  <si>
+    <t>295244</t>
+  </si>
+  <si>
+    <t>1859</t>
+  </si>
+  <si>
+    <t>344388</t>
+  </si>
+  <si>
+    <t>11117738932</t>
+  </si>
+  <si>
+    <t>345093</t>
+  </si>
+  <si>
+    <t>1870</t>
+  </si>
+  <si>
+    <t>13095841346</t>
+  </si>
+  <si>
+    <t>345108</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>03075929152</t>
+  </si>
+  <si>
+    <t>345027</t>
+  </si>
+  <si>
+    <t>06036126548</t>
+  </si>
+  <si>
+    <t>345055</t>
+  </si>
+  <si>
+    <t>04047027522</t>
+  </si>
+  <si>
+    <t>345036</t>
+  </si>
+  <si>
     <t>1804</t>
   </si>
   <si>
+    <t>08026544786</t>
+  </si>
+  <si>
+    <t>345069</t>
+  </si>
+  <si>
+    <t>1149</t>
+  </si>
+  <si>
+    <t>17047740908</t>
+  </si>
+  <si>
+    <t>345146</t>
+  </si>
+  <si>
+    <t>12027043397</t>
+  </si>
+  <si>
+    <t>296380</t>
+  </si>
+  <si>
+    <t>1750</t>
+  </si>
+  <si>
+    <t>344319</t>
+  </si>
+  <si>
+    <t>14037735591</t>
+  </si>
+  <si>
+    <t>345113</t>
+  </si>
+  <si>
+    <t>27056638143</t>
+  </si>
+  <si>
+    <t>232296</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>295246</t>
+  </si>
+  <si>
+    <t>344393</t>
+  </si>
+  <si>
+    <t>31016124756</t>
+  </si>
+  <si>
+    <t>191009</t>
+  </si>
+  <si>
+    <t>231746</t>
+  </si>
+  <si>
+    <t>344411</t>
+  </si>
+  <si>
+    <t>16098846062</t>
+  </si>
+  <si>
+    <t>106412</t>
+  </si>
+  <si>
+    <t>0402</t>
+  </si>
+  <si>
+    <t>349031</t>
+  </si>
+  <si>
+    <t>26126847717</t>
+  </si>
+  <si>
+    <t>065996</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>18028040454</t>
+  </si>
+  <si>
+    <t>066405</t>
+  </si>
+  <si>
+    <t>20036821796</t>
+  </si>
+  <si>
+    <t>066923</t>
+  </si>
+  <si>
+    <t>1102</t>
+  </si>
+  <si>
+    <t>242698</t>
+  </si>
+  <si>
+    <t>258439</t>
+  </si>
+  <si>
+    <t>304423</t>
+  </si>
+  <si>
+    <t>04067622974</t>
+  </si>
+  <si>
+    <t>067439</t>
+  </si>
+  <si>
+    <t>24117542676</t>
+  </si>
+  <si>
+    <t>267048</t>
+  </si>
+  <si>
+    <t>269115</t>
+  </si>
+  <si>
+    <t>29096333313</t>
+  </si>
+  <si>
+    <t>068999</t>
+  </si>
+  <si>
+    <t>1534</t>
+  </si>
+  <si>
+    <t>116154</t>
+  </si>
+  <si>
+    <t>128948</t>
+  </si>
+  <si>
+    <t>151473</t>
+  </si>
+  <si>
+    <t>192122</t>
+  </si>
+  <si>
+    <t>249326</t>
+  </si>
+  <si>
+    <t>295268</t>
+  </si>
+  <si>
+    <t>344404</t>
+  </si>
+  <si>
+    <t>11097544842</t>
+  </si>
+  <si>
+    <t>302706</t>
+  </si>
+  <si>
+    <t>1714</t>
+  </si>
+  <si>
+    <t>29116828098</t>
+  </si>
+  <si>
+    <t>176818</t>
+  </si>
+  <si>
+    <t>0220</t>
+  </si>
+  <si>
+    <t>15028230254</t>
+  </si>
+  <si>
+    <t>314593</t>
+  </si>
+  <si>
+    <t>0928</t>
+  </si>
+  <si>
+    <t>26057529619</t>
+  </si>
+  <si>
+    <t>091945</t>
+  </si>
+  <si>
+    <t>0419</t>
+  </si>
+  <si>
+    <t>091946</t>
+  </si>
+  <si>
+    <t>17048242871</t>
+  </si>
+  <si>
+    <t>191542</t>
+  </si>
+  <si>
+    <t>25066948342</t>
+  </si>
+  <si>
+    <t>073480</t>
+  </si>
+  <si>
+    <t>05108041147</t>
+  </si>
+  <si>
+    <t>345054</t>
+  </si>
+  <si>
+    <t>0124</t>
+  </si>
+  <si>
+    <t>15026948301</t>
+  </si>
+  <si>
+    <t>295179</t>
+  </si>
+  <si>
+    <t>344338</t>
+  </si>
+  <si>
+    <t>15118735789</t>
+  </si>
+  <si>
+    <t>345128</t>
+  </si>
+  <si>
+    <t>13058845706</t>
+  </si>
+  <si>
+    <t>243763</t>
+  </si>
+  <si>
+    <t>1539</t>
+  </si>
+  <si>
+    <t>01117243296</t>
+  </si>
+  <si>
+    <t>157612</t>
+  </si>
+  <si>
+    <t>291542</t>
+  </si>
+  <si>
+    <t>338103</t>
+  </si>
+  <si>
+    <t>14078833085</t>
+  </si>
+  <si>
+    <t>313856</t>
+  </si>
+  <si>
+    <t>12086148054</t>
+  </si>
+  <si>
+    <t>141598</t>
+  </si>
+  <si>
+    <t>04076940075</t>
+  </si>
+  <si>
+    <t>259217</t>
+  </si>
+  <si>
+    <t>1548</t>
+  </si>
+  <si>
+    <t>25098333757</t>
+  </si>
+  <si>
+    <t>096730</t>
+  </si>
+  <si>
+    <t>20028431156</t>
+  </si>
+  <si>
+    <t>202081</t>
+  </si>
+  <si>
+    <t>339672</t>
+  </si>
+  <si>
+    <t>339673</t>
+  </si>
+  <si>
+    <t>18128234574</t>
+  </si>
+  <si>
+    <t>335761</t>
+  </si>
+  <si>
+    <t>06097044943</t>
+  </si>
+  <si>
+    <t>308547</t>
+  </si>
+  <si>
+    <t>1242</t>
+  </si>
+  <si>
+    <t>19067431734</t>
+  </si>
+  <si>
+    <t>086252</t>
+  </si>
+  <si>
+    <t>2030</t>
+  </si>
+  <si>
+    <t>17017734725</t>
+  </si>
+  <si>
+    <t>087058</t>
+  </si>
+  <si>
+    <t>0423</t>
+  </si>
+  <si>
+    <t>087059</t>
+  </si>
+  <si>
+    <t>095535</t>
+  </si>
+  <si>
+    <t>05067046511</t>
+  </si>
+  <si>
+    <t>336221</t>
+  </si>
+  <si>
+    <t>0906</t>
+  </si>
+  <si>
+    <t>16097037756</t>
+  </si>
+  <si>
+    <t>135840</t>
+  </si>
+  <si>
+    <t>199928</t>
+  </si>
+  <si>
+    <t>243856</t>
+  </si>
+  <si>
+    <t>03077737390</t>
+  </si>
+  <si>
+    <t>090725</t>
+  </si>
+  <si>
+    <t>113860</t>
+  </si>
+  <si>
+    <t>30056433747</t>
+  </si>
+  <si>
+    <t>090784</t>
+  </si>
+  <si>
+    <t>170991</t>
+  </si>
+  <si>
+    <t>25038333111</t>
+  </si>
+  <si>
+    <t>296166</t>
+  </si>
+  <si>
+    <t>1511</t>
+  </si>
+  <si>
+    <t>344378</t>
+  </si>
+  <si>
+    <t>05097242935</t>
+  </si>
+  <si>
+    <t>093743</t>
+  </si>
+  <si>
+    <t>146357</t>
+  </si>
+  <si>
+    <t>11107440242</t>
+  </si>
+  <si>
+    <t>094877</t>
+  </si>
+  <si>
+    <t>1246</t>
+  </si>
+  <si>
+    <t>13128239213</t>
+  </si>
+  <si>
+    <t>302246</t>
+  </si>
+  <si>
+    <t>0807</t>
+  </si>
+  <si>
+    <t>08037749037</t>
+  </si>
+  <si>
+    <t>336942</t>
+  </si>
+  <si>
+    <t>0819</t>
+  </si>
+  <si>
+    <t>10088032611</t>
+  </si>
+  <si>
+    <t>120137</t>
+  </si>
+  <si>
+    <t>0502</t>
+  </si>
+  <si>
+    <t>125423</t>
+  </si>
+  <si>
+    <t>126064</t>
+  </si>
+  <si>
+    <t>140468</t>
+  </si>
+  <si>
+    <t>18126745954</t>
+  </si>
+  <si>
+    <t>308770</t>
+  </si>
+  <si>
+    <t>1543</t>
+  </si>
+  <si>
+    <t>05028335786</t>
+  </si>
+  <si>
+    <t>345049</t>
+  </si>
+  <si>
+    <t>1868</t>
+  </si>
+  <si>
+    <t>09027933375</t>
+  </si>
+  <si>
+    <t>234148</t>
+  </si>
+  <si>
+    <t>294841</t>
+  </si>
+  <si>
+    <t>344306</t>
+  </si>
+  <si>
+    <t>10127832124</t>
+  </si>
+  <si>
+    <t>345086</t>
+  </si>
+  <si>
+    <t>12109249104</t>
+  </si>
+  <si>
+    <t>345101</t>
+  </si>
+  <si>
+    <t>14117434118</t>
+  </si>
+  <si>
+    <t>100046</t>
+  </si>
+  <si>
+    <t>1515</t>
+  </si>
+  <si>
+    <t>121986</t>
+  </si>
+  <si>
+    <t>150925</t>
+  </si>
+  <si>
+    <t>192366</t>
+  </si>
+  <si>
+    <t>234188</t>
+  </si>
+  <si>
+    <t>294881</t>
+  </si>
+  <si>
+    <t>344333</t>
+  </si>
+  <si>
+    <t>17047039746</t>
+  </si>
+  <si>
+    <t>345145</t>
+  </si>
+  <si>
+    <t>22026947581</t>
+  </si>
+  <si>
+    <t>295213</t>
+  </si>
+  <si>
+    <t>0904</t>
+  </si>
+  <si>
+    <t>344363</t>
+  </si>
+  <si>
+    <t>11018134561</t>
+  </si>
+  <si>
+    <t>318184</t>
+  </si>
+  <si>
+    <t>0105</t>
+  </si>
+  <si>
+    <t>19057116571</t>
+  </si>
+  <si>
+    <t>233256</t>
+  </si>
+  <si>
+    <t>339343</t>
+  </si>
+  <si>
+    <t>20018538912</t>
+  </si>
+  <si>
+    <t>267216</t>
+  </si>
+  <si>
+    <t>314472</t>
+  </si>
+  <si>
+    <t>28128342194</t>
+  </si>
+  <si>
+    <t>105302</t>
+  </si>
+  <si>
+    <t>10076435796</t>
+  </si>
+  <si>
+    <t>345083</t>
+  </si>
+  <si>
+    <t>05036538203</t>
+  </si>
+  <si>
+    <t>106868</t>
+  </si>
+  <si>
+    <t>318193</t>
+  </si>
+  <si>
+    <t>11056142446</t>
+  </si>
+  <si>
+    <t>107025</t>
+  </si>
+  <si>
+    <t>13085843367</t>
+  </si>
+  <si>
+    <t>242299</t>
+  </si>
+  <si>
+    <t>0235</t>
+  </si>
+  <si>
+    <t>325292</t>
+  </si>
+  <si>
+    <t>29107324877</t>
+  </si>
+  <si>
+    <t>109587</t>
+  </si>
+  <si>
+    <t>28116537941</t>
+  </si>
+  <si>
+    <t>122057</t>
+  </si>
+  <si>
+    <t>02087349503</t>
+  </si>
+  <si>
+    <t>197156</t>
+  </si>
+  <si>
+    <t>1531</t>
+  </si>
+  <si>
+    <t>19107939841</t>
+  </si>
+  <si>
+    <t>122514</t>
+  </si>
+  <si>
+    <t>03037129959</t>
+  </si>
+  <si>
+    <t>313368</t>
+  </si>
+  <si>
+    <t>17108942371</t>
+  </si>
+  <si>
+    <t>332673</t>
+  </si>
+  <si>
+    <t>1820</t>
+  </si>
+  <si>
+    <t>29077841146</t>
+  </si>
+  <si>
+    <t>242729</t>
+  </si>
+  <si>
+    <t>27128638682</t>
+  </si>
+  <si>
+    <t>244908</t>
+  </si>
+  <si>
+    <t>0529</t>
+  </si>
+  <si>
+    <t>245157</t>
+  </si>
+  <si>
+    <t>05076342786</t>
+  </si>
+  <si>
+    <t>117943</t>
+  </si>
+  <si>
+    <t>0829</t>
+  </si>
+  <si>
+    <t>18018336991</t>
+  </si>
+  <si>
+    <t>254081</t>
+  </si>
+  <si>
+    <t>0237</t>
+  </si>
+  <si>
+    <t>16076644245</t>
+  </si>
+  <si>
+    <t>310592</t>
+  </si>
+  <si>
+    <t>07015648923</t>
+  </si>
+  <si>
+    <t>118774</t>
+  </si>
+  <si>
+    <t>26035843123</t>
+  </si>
+  <si>
+    <t>192094</t>
+  </si>
+  <si>
+    <t>295230</t>
+  </si>
+  <si>
+    <t>344382</t>
+  </si>
+  <si>
+    <t>22048547382</t>
+  </si>
+  <si>
+    <t>316009</t>
+  </si>
+  <si>
+    <t>344364</t>
+  </si>
+  <si>
+    <t>07118237298</t>
+  </si>
+  <si>
+    <t>121729</t>
+  </si>
+  <si>
+    <t>350090</t>
+  </si>
+  <si>
+    <t>26098730450</t>
+  </si>
+  <si>
+    <t>258515</t>
+  </si>
+  <si>
+    <t>0238</t>
+  </si>
+  <si>
+    <t>333155</t>
+  </si>
+  <si>
+    <t>29118238506</t>
+  </si>
+  <si>
+    <t>122374</t>
+  </si>
+  <si>
+    <t>14028739460</t>
+  </si>
+  <si>
+    <t>307204</t>
+  </si>
+  <si>
+    <t>307205</t>
+  </si>
+  <si>
+    <t>18096320112</t>
+  </si>
+  <si>
+    <t>123682</t>
+  </si>
+  <si>
+    <t>21087928702</t>
+  </si>
+  <si>
+    <t>335780</t>
+  </si>
+  <si>
+    <t>25068134962</t>
+  </si>
+  <si>
+    <t>125112</t>
+  </si>
+  <si>
+    <t>1429</t>
+  </si>
+  <si>
+    <t>243775</t>
+  </si>
+  <si>
+    <t>12057439058</t>
+  </si>
+  <si>
+    <t>336577</t>
+  </si>
+  <si>
+    <t>1101</t>
+  </si>
+  <si>
+    <t>04125841150</t>
+  </si>
+  <si>
+    <t>128894</t>
+  </si>
+  <si>
+    <t>1841</t>
+  </si>
+  <si>
+    <t>150909</t>
+  </si>
+  <si>
+    <t>192283</t>
+  </si>
+  <si>
+    <t>234121</t>
+  </si>
+  <si>
+    <t>294817</t>
+  </si>
+  <si>
+    <t>344290</t>
+  </si>
+  <si>
+    <t>15097643773</t>
+  </si>
+  <si>
+    <t>345127</t>
+  </si>
+  <si>
+    <t>1419</t>
+  </si>
+  <si>
+    <t>16098645318</t>
+  </si>
+  <si>
+    <t>345140</t>
+  </si>
+  <si>
+    <t>1532</t>
+  </si>
+  <si>
+    <t>13068433082</t>
+  </si>
+  <si>
+    <t>131062</t>
+  </si>
+  <si>
+    <t>0101</t>
+  </si>
+  <si>
+    <t>131567</t>
+  </si>
+  <si>
+    <t>338741</t>
+  </si>
+  <si>
+    <t>15018334116</t>
+  </si>
+  <si>
+    <t>131251</t>
+  </si>
+  <si>
+    <t>07078227731</t>
+  </si>
+  <si>
+    <t>254134</t>
+  </si>
+  <si>
+    <t>04118646504</t>
+  </si>
+  <si>
+    <t>252059</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>339227</t>
+  </si>
+  <si>
+    <t>10108827772</t>
+  </si>
+  <si>
+    <t>134323</t>
+  </si>
+  <si>
+    <t>0605</t>
+  </si>
+  <si>
+    <t>16048639740</t>
+  </si>
+  <si>
+    <t>337140</t>
+  </si>
+  <si>
+    <t>0722</t>
+  </si>
+  <si>
+    <t>17128137904</t>
+  </si>
+  <si>
+    <t>135280</t>
+  </si>
+  <si>
+    <t>156624</t>
+  </si>
+  <si>
+    <t>29076930382</t>
+  </si>
+  <si>
+    <t>139169</t>
+  </si>
+  <si>
+    <t>338821</t>
+  </si>
+  <si>
+    <t>01076230907</t>
+  </si>
+  <si>
+    <t>247296</t>
+  </si>
+  <si>
+    <t>04107428610</t>
+  </si>
+  <si>
+    <t>140109</t>
+  </si>
+  <si>
+    <t>271286</t>
+  </si>
+  <si>
+    <t>02058442928</t>
+  </si>
+  <si>
+    <t>140162</t>
+  </si>
+  <si>
+    <t>17025740467</t>
+  </si>
+  <si>
+    <t>140291</t>
+  </si>
+  <si>
+    <t>13048333596</t>
+  </si>
+  <si>
+    <t>304961</t>
+  </si>
+  <si>
+    <t>0534</t>
+  </si>
+  <si>
+    <t>06048142255</t>
+  </si>
+  <si>
+    <t>336938</t>
+  </si>
+  <si>
+    <t>0805</t>
+  </si>
+  <si>
+    <t>31078348650</t>
+  </si>
+  <si>
+    <t>207451</t>
+  </si>
+  <si>
+    <t>01106823681</t>
+  </si>
+  <si>
+    <t>213528</t>
+  </si>
+  <si>
+    <t>0137</t>
+  </si>
+  <si>
+    <t>313583</t>
+  </si>
+  <si>
+    <t>11017027354</t>
+  </si>
+  <si>
+    <t>141874</t>
+  </si>
+  <si>
+    <t>02108636311</t>
+  </si>
+  <si>
+    <t>317295</t>
+  </si>
+  <si>
+    <t>342313</t>
+  </si>
+  <si>
+    <t>27098347386</t>
+  </si>
+  <si>
+    <t>143155</t>
+  </si>
+  <si>
+    <t>269251</t>
+  </si>
+  <si>
+    <t>29066925488</t>
+  </si>
+  <si>
+    <t>143388</t>
+  </si>
+  <si>
+    <t>11078432049</t>
+  </si>
+  <si>
+    <t>146423</t>
+  </si>
+  <si>
+    <t>303140</t>
+  </si>
+  <si>
+    <t>23078728787</t>
+  </si>
+  <si>
+    <t>145542</t>
+  </si>
+  <si>
+    <t>14046625308</t>
+  </si>
+  <si>
+    <t>339146</t>
+  </si>
+  <si>
+    <t>1505</t>
+  </si>
+  <si>
+    <t>07056541165</t>
+  </si>
+  <si>
+    <t>146548</t>
+  </si>
+  <si>
+    <t>146612</t>
+  </si>
+  <si>
+    <t>23096320531</t>
+  </si>
+  <si>
+    <t>148292</t>
+  </si>
+  <si>
+    <t>14026844259</t>
+  </si>
+  <si>
+    <t>291551</t>
+  </si>
+  <si>
+    <t>292217</t>
+  </si>
+  <si>
+    <t>06088240306</t>
+  </si>
+  <si>
+    <t>345060</t>
+  </si>
+  <si>
+    <t>1919</t>
+  </si>
+  <si>
+    <t>13046644349</t>
+  </si>
+  <si>
+    <t>150481</t>
+  </si>
+  <si>
+    <t>0403</t>
+  </si>
+  <si>
+    <t>18047129148</t>
+  </si>
+  <si>
+    <t>316000</t>
+  </si>
+  <si>
+    <t>344346</t>
+  </si>
+  <si>
+    <t>16077125470</t>
+  </si>
+  <si>
+    <t>227958</t>
+  </si>
+  <si>
+    <t>16128244992</t>
+  </si>
+  <si>
+    <t>155509</t>
+  </si>
+  <si>
+    <t>0426</t>
+  </si>
+  <si>
+    <t>15058445972</t>
+  </si>
+  <si>
+    <t>157944</t>
+  </si>
+  <si>
+    <t>207735</t>
+  </si>
+  <si>
+    <t>301883</t>
+  </si>
+  <si>
+    <t>28017731345</t>
+  </si>
+  <si>
+    <t>158285</t>
+  </si>
+  <si>
     <t>0231</t>
   </si>
   <si>
-    <t>0710</t>
-  </si>
-  <si>
-    <t>01126526160</t>
-  </si>
-  <si>
-    <t>1001</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>10058940238</t>
-  </si>
-  <si>
-    <t>341630</t>
-  </si>
-  <si>
-    <t>15106633468</t>
-  </si>
-  <si>
-    <t>341635</t>
-  </si>
-  <si>
-    <t>0713</t>
-  </si>
-  <si>
-    <t>13057733017</t>
-  </si>
-  <si>
-    <t>341639</t>
-  </si>
-  <si>
-    <t>07097925709</t>
-  </si>
-  <si>
-    <t>341640</t>
-  </si>
-  <si>
-    <t>0602</t>
-  </si>
-  <si>
-    <t>08016246582</t>
-  </si>
-  <si>
-    <t>341642</t>
-  </si>
-  <si>
-    <t>0237</t>
-  </si>
-  <si>
-    <t>08078349485</t>
-  </si>
-  <si>
-    <t>341649</t>
-  </si>
-  <si>
-    <t>11078924324</t>
-  </si>
-  <si>
-    <t>341650</t>
-  </si>
-  <si>
-    <t>14047526613</t>
-  </si>
-  <si>
-    <t>341657</t>
-  </si>
-  <si>
-    <t>0403</t>
-  </si>
-  <si>
-    <t>26048725081</t>
-  </si>
-  <si>
-    <t>341679</t>
-  </si>
-  <si>
-    <t>04127232518</t>
-  </si>
-  <si>
-    <t>341696</t>
-  </si>
-  <si>
-    <t>19038330473</t>
-  </si>
-  <si>
-    <t>341699</t>
-  </si>
-  <si>
-    <t>24096327397</t>
-  </si>
-  <si>
-    <t>341701</t>
-  </si>
-  <si>
-    <t>0704</t>
-  </si>
-  <si>
-    <t>26036424965</t>
-  </si>
-  <si>
-    <t>341705</t>
-  </si>
-  <si>
-    <t>22067524504</t>
-  </si>
-  <si>
-    <t>341708</t>
-  </si>
-  <si>
-    <t>16038928280</t>
-  </si>
-  <si>
-    <t>341710</t>
-  </si>
-  <si>
-    <t>1246</t>
-  </si>
-  <si>
-    <t>18039227114</t>
-  </si>
-  <si>
-    <t>342517</t>
-  </si>
-  <si>
-    <t>1401</t>
-  </si>
-  <si>
-    <t>30058721863</t>
-  </si>
-  <si>
-    <t>342520</t>
-  </si>
-  <si>
-    <t>1432</t>
-  </si>
-  <si>
-    <t>07108929515</t>
-  </si>
-  <si>
-    <t>342523</t>
-  </si>
-  <si>
-    <t>342528</t>
-  </si>
-  <si>
-    <t>27107831970</t>
-  </si>
-  <si>
-    <t>342529</t>
-  </si>
-  <si>
-    <t>11039231877</t>
-  </si>
-  <si>
-    <t>342531</t>
-  </si>
-  <si>
-    <t>02026330664</t>
-  </si>
-  <si>
-    <t>342543</t>
-  </si>
-  <si>
-    <t>19046519674</t>
-  </si>
-  <si>
-    <t>342546</t>
-  </si>
-  <si>
-    <t>0213</t>
-  </si>
-  <si>
-    <t>18066342936</t>
-  </si>
-  <si>
-    <t>342548</t>
-  </si>
-  <si>
-    <t>0624</t>
+    <t>159003</t>
+  </si>
+  <si>
+    <t>27018349529</t>
+  </si>
+  <si>
+    <t>158458</t>
+  </si>
+  <si>
+    <t>15068535082</t>
+  </si>
+  <si>
+    <t>203924</t>
+  </si>
+  <si>
+    <t>0138</t>
+  </si>
+  <si>
+    <t>203926</t>
+  </si>
+  <si>
+    <t>16045932307</t>
+  </si>
+  <si>
+    <t>160105</t>
+  </si>
+  <si>
+    <t>0626</t>
+  </si>
+  <si>
+    <t>23028436211</t>
+  </si>
+  <si>
+    <t>307641</t>
+  </si>
+  <si>
+    <t>1566</t>
+  </si>
+  <si>
+    <t>23088433971</t>
+  </si>
+  <si>
+    <t>192074</t>
+  </si>
+  <si>
+    <t>234510</t>
+  </si>
+  <si>
+    <t>295217</t>
+  </si>
+  <si>
+    <t>344370</t>
+  </si>
+  <si>
+    <t>13075830267</t>
+  </si>
+  <si>
+    <t>310176</t>
+  </si>
+  <si>
+    <t>325271</t>
+  </si>
+  <si>
+    <t>01077641684</t>
+  </si>
+  <si>
+    <t>264692</t>
+  </si>
+  <si>
+    <t>0533</t>
+  </si>
+  <si>
+    <t>05047216747</t>
+  </si>
+  <si>
+    <t>162847</t>
+  </si>
+  <si>
+    <t>09068748604</t>
+  </si>
+  <si>
+    <t>318847</t>
+  </si>
+  <si>
+    <t>0538</t>
+  </si>
+  <si>
+    <t>02028229979</t>
+  </si>
+  <si>
+    <t>164189</t>
+  </si>
+  <si>
+    <t>0215</t>
+  </si>
+  <si>
+    <t>20058933393</t>
+  </si>
+  <si>
+    <t>213218</t>
+  </si>
+  <si>
+    <t>213253</t>
+  </si>
+  <si>
+    <t>08077233793</t>
+  </si>
+  <si>
+    <t>165817</t>
+  </si>
+  <si>
+    <t>347512</t>
+  </si>
+  <si>
+    <t>28106730158</t>
+  </si>
+  <si>
+    <t>206207</t>
+  </si>
+  <si>
+    <t>219031</t>
+  </si>
+  <si>
+    <t>234872</t>
+  </si>
+  <si>
+    <t>11038943849</t>
+  </si>
+  <si>
+    <t>332089</t>
+  </si>
+  <si>
+    <t>23078426632</t>
+  </si>
+  <si>
+    <t>339400</t>
+  </si>
+  <si>
+    <t>30015620338</t>
+  </si>
+  <si>
+    <t>173648</t>
+  </si>
+  <si>
+    <t>1640</t>
+  </si>
+  <si>
+    <t>01068647726</t>
+  </si>
+  <si>
+    <t>338812</t>
+  </si>
+  <si>
+    <t>06126333534</t>
+  </si>
+  <si>
+    <t>174831</t>
+  </si>
+  <si>
+    <t>19107631189</t>
+  </si>
+  <si>
+    <t>339397</t>
+  </si>
+  <si>
+    <t>14028147164</t>
+  </si>
+  <si>
+    <t>207756</t>
+  </si>
+  <si>
+    <t>25098530994</t>
+  </si>
+  <si>
+    <t>179262</t>
+  </si>
+  <si>
+    <t>194260</t>
+  </si>
+  <si>
+    <t>22017737191</t>
+  </si>
+  <si>
+    <t>179607</t>
+  </si>
+  <si>
+    <t>339674</t>
   </si>
 </sst>
 </file>
@@ -256,12 +2113,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -563,11 +2417,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C361"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -579,19 +2431,19 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>8</v>
@@ -599,255 +2451,3951 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>40</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>3</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>3</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="C30" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>68</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="C277" s="1" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="C278" s="1" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="C280" s="1" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="C285" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="C287" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="C289" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="C290" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C291" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="C293" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="C295" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="C296" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A297" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="C297" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="C298" s="1" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="C299" s="1" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A300" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="C300" s="1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A301" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="C301" s="1" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A302" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="C302" s="1" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A303" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="C303" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A304" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="C304" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A305" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="C305" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A306" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="C306" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A307" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="C307" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A308" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="C308" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A309" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="C309" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A310" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="C310" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A311" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="C311" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A312" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="C312" s="1" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A313" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="C313" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A314" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="C314" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A315" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="C315" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A316" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="C316" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A317" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="C317" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A318" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="C318" s="1" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A319" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="C319" s="1" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A320" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="C320" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A321" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="C321" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A322" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="B322" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="C322" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A323" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="B323" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="C323" s="1" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A324" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="C324" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A325" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="C325" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A326" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="C326" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A327" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="C327" s="1" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A328" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="B328" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="C328" s="1" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A329" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="C329" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A330" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="B330" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="C330" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A331" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="B331" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="C331" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A332" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="B332" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="C332" s="1" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A333" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="B333" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="C333" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A334" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="B334" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="C334" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A335" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="B335" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="C335" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A336" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="B336" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="C336" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A337" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="B337" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="C337" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A338" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="B338" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="C338" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A339" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="B339" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="C339" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A340" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="B340" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="C340" s="1" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A341" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="B341" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="C341" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A342" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="B342" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="C342" s="1" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A343" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="B343" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="C343" s="1" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A344" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="B344" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="C344" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A345" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="B345" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="C345" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A346" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="B346" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="C346" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A347" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="B347" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="C347" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A348" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="B348" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="C348" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A349" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="B349" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C349" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A350" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="B350" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="C350" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A351" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="B351" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="C351" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A352" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="B352" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="C352" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A353" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="B353" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="C353" s="1" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A354" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="B354" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="C354" s="1" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A355" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="B355" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="C355" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A356" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="B356" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="C356" s="1" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A357" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="B357" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="C357" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A358" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="B358" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="C358" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A359" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="B359" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="C359" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A360" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="B360" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="C360" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A361" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="B361" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="C361" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
